--- a/docs/shrcore/shr-core-Media-model.xlsx
+++ b/docs/shrcore/shr-core-Media-model.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$28</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="125">
   <si>
     <t>Path</t>
   </si>
@@ -186,6 +186,12 @@
     <t>A state that relates to the workflow or interpretation of this resource. Certain status values can modify the meaning of the resource, for example, entered-in-error. When a boolean value is used, Status of true indicates the record is active, false means inactive.</t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/event-status</t>
+  </si>
+  <si>
     <t>shr-core-Media-model.identifier</t>
   </si>
   <si>
@@ -222,9 +228,6 @@
     <t>A code describing the item at a greater level of detail.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/digital-media-type</t>
   </si>
   <si>
@@ -232,10 +235,10 @@
 </t>
   </si>
   <si>
-    <t>shr-core-Media-model.subtype</t>
-  </si>
-  <si>
-    <t>A further refinement of type.</t>
+    <t>shr-core-Media-model.modality</t>
+  </si>
+  <si>
+    <t>Details of the type of the media - usually, how it was acquired (what type of device). If images sourced from a DICOM system, are wrapped in a Media resource, then this is the modality.</t>
   </si>
   <si>
     <t>shr-core-Media-model.view</t>
@@ -260,10 +263,10 @@
     <t>A choice of Patient, Practitioner, Group, Device or Specimen. These are choices for subject of Media resource.</t>
   </si>
   <si>
-    <t>shr-core-Media-model.careContext[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-EpisodeOfCare-model]]}
+    <t>shr-core-Media-model.careContext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Encounter-model]]}
 </t>
   </si>
   <si>
@@ -284,22 +287,28 @@
 The clinically relevant time is not necessarily when the information is gathered or when a test is carried out, but for example, when a specimen was collected, or the time period referred to by the question. Use a TimePeriod for a measurement or specimen collection continued over a significant period of time (e.g. 24 hour Urine Sodium).</t>
   </si>
   <si>
-    <t>shr-core-Media-model.practitioner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner-model]]}
+    <t>shr-core-Media-model.statementDateTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime {[]} {[]}
 </t>
   </si>
   <si>
-    <t>A person who practices a healing art.</t>
-  </si>
-  <si>
-    <t>A person who practices a healing art.
-HumanName is limited to one required value by US-Core. Gender is required by US-Core. US-Core required an identifier, either a NPI (preferred) or tax id.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C2220264
+    <t>The point in time when the statement was created.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C3669169
 </t>
+  </si>
+  <si>
+    <t>shr-core-Media-model.performer[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson-model]]}
+</t>
+  </si>
+  <si>
+    <t>The actor that carried out the observation or action.</t>
   </si>
   <si>
     <t>shr-core-Media-model.reasonCode</t>
@@ -351,6 +360,16 @@
     <t>A specific durable physical device used in diagnosis or treatment. The value is the coding for a type of device, for example, a CPAP machine. The same device might be used on multiple patients.
 Device status cannot be reconciled between Argonaut and US-Core, each having different required value sets.
 Device type has extensible mappings to different value sets in Argonaut and US-Core, however both value sets have identical SNOMED content (descendants of 49062001 (Device). We adopt the US-Core value set, which is allowable because the binding is extensible.</t>
+  </si>
+  <si>
+    <t>shr-core-Media-model.deviceName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The name of the device.</t>
   </si>
   <si>
     <t>shr-core-Media-model.pixelHeight</t>
@@ -551,7 +570,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ26"/>
+  <dimension ref="A1:AI28"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1197,7 +1216,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>41</v>
@@ -1245,13 +1264,11 @@
         <v>36</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="X7" s="2"/>
       <c r="Y7" t="s" s="2">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="Z7" t="s" s="2">
         <v>36</v>
@@ -1272,7 +1289,7 @@
         <v>53</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>41</v>
@@ -1286,7 +1303,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1309,13 +1326,13 @@
         <v>36</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1366,7 +1383,7 @@
         <v>36</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>37</v>
@@ -1383,7 +1400,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1406,13 +1423,13 @@
         <v>36</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1463,7 +1480,7 @@
         <v>36</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>37</v>
@@ -1480,7 +1497,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1503,13 +1520,13 @@
         <v>36</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1560,7 +1577,7 @@
         <v>36</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>37</v>
@@ -1577,7 +1594,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1603,10 +1620,10 @@
         <v>45</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1633,14 +1650,14 @@
         <v>36</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="X11" s="2"/>
       <c r="Y11" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>36</v>
@@ -1655,7 +1672,7 @@
         <v>36</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>41</v>
@@ -1672,7 +1689,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1698,10 +1715,10 @@
         <v>45</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1752,7 +1769,7 @@
         <v>36</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>37</v>
@@ -1769,7 +1786,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1795,10 +1812,10 @@
         <v>45</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1825,11 +1842,11 @@
         <v>36</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>36</v>
@@ -1847,7 +1864,7 @@
         <v>36</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>37</v>
@@ -1864,7 +1881,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1887,13 +1904,13 @@
         <v>36</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1944,7 +1961,7 @@
         <v>36</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>37</v>
@@ -1961,7 +1978,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -1984,13 +2001,13 @@
         <v>36</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2041,7 +2058,7 @@
         <v>36</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>37</v>
@@ -2058,7 +2075,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2081,13 +2098,13 @@
         <v>36</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2138,7 +2155,7 @@
         <v>36</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>37</v>
@@ -2155,7 +2172,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2178,10 +2195,10 @@
         <v>36</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>88</v>
@@ -2235,7 +2252,7 @@
         <v>36</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>37</v>
@@ -2263,7 +2280,7 @@
         <v>37</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>36</v>
@@ -2275,10 +2292,10 @@
         <v>36</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>92</v>
@@ -2308,14 +2325,16 @@
         <v>36</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="X18" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y18" t="s" s="2">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>36</v>
@@ -2336,7 +2355,7 @@
         <v>37</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>36</v>
@@ -2347,7 +2366,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2358,7 +2377,7 @@
         <v>37</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>36</v>
@@ -2370,13 +2389,13 @@
         <v>36</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2403,16 +2422,14 @@
         <v>36</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="X19" s="2"/>
       <c r="Y19" t="s" s="2">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>36</v>
@@ -2427,13 +2444,13 @@
         <v>36</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>36</v>
@@ -2444,7 +2461,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2467,13 +2484,13 @@
         <v>36</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2524,7 +2541,7 @@
         <v>36</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>37</v>
@@ -2541,7 +2558,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2564,10 +2581,10 @@
         <v>36</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>105</v>
@@ -2621,7 +2638,7 @@
         <v>36</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>37</v>
@@ -2661,13 +2678,13 @@
         <v>36</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -2735,7 +2752,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -2758,13 +2775,13 @@
         <v>36</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -2815,7 +2832,7 @@
         <v>36</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>37</v>
@@ -2832,7 +2849,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -2855,13 +2872,13 @@
         <v>36</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -2912,7 +2929,7 @@
         <v>36</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>37</v>
@@ -2929,7 +2946,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -2937,7 +2954,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>41</v>
@@ -2952,7 +2969,7 @@
         <v>36</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>115</v>
@@ -3009,10 +3026,10 @@
         <v>36</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>41</v>
@@ -3037,7 +3054,7 @@
         <v>37</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>36</v>
@@ -3112,17 +3129,211 @@
         <v>37</v>
       </c>
       <c r="AG26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" hidden="true">
+      <c r="A27" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" hidden="true">
+      <c r="A28" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F28" t="s" s="2">
         <v>38</v>
       </c>
-      <c r="AH26" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI26" t="s" s="2">
+      <c r="G28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI28" t="s" s="2">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI26">
+  <autoFilter ref="A1:AI28">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -3132,7 +3343,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI25">
+  <conditionalFormatting sqref="A2:AI27">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
